--- a/results/FatalitiesStudyAudit.xlsx
+++ b/results/FatalitiesStudyAudit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jofia\Dropbox2\Dropbox\Dropbox2\~Middlebury~\Thesis\AWWIC.NACSE Region 5, 06-15, PCS Fatalities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jofia\github\thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8BFE2D-0ED2-4A4D-A565-4971471C256D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2350FD5-9CB4-4EF5-AA32-9A1C7FEE4CE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9E9703ED-0C9F-4F9C-8B45-1A1361BE7621}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>Average Interval between Searches in Days</t>
   </si>
   <si>
-    <t>Data available for May-October date range?</t>
-  </si>
-  <si>
     <t>Random Forests Data (Turbine Height): could find all from USGS database (say that in caption?)</t>
   </si>
   <si>
@@ -961,13 +958,16 @@
   </si>
   <si>
     <t>Appendix A</t>
+  </si>
+  <si>
+    <t>Data available for July-October date range?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,12 +989,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1437,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EFCBC6-B046-41C4-96FC-9E858E341119}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="62" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1479,24 +1473,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1504,847 +1498,847 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>91</v>
       </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>94</v>
       </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
         <v>96</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
-        <v>98</v>
-      </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
         <v>99</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>100</v>
       </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
         <v>104</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>105</v>
       </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>108</v>
       </c>
-      <c r="C32" t="s">
-        <v>109</v>
-      </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
         <v>110</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>111</v>
       </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -2355,29 +2349,29 @@
         <v>20</v>
       </c>
       <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" t="s">
         <v>113</v>
       </c>
-      <c r="F34" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>114</v>
-      </c>
-      <c r="I34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2417,104 +2411,104 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>128</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>129</v>
-      </c>
-      <c r="L1" t="s">
-        <v>130</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
       </c>
       <c r="P1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>133</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>134</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>135</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>136</v>
-      </c>
-      <c r="U1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
         <v>138</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
         <v>139</v>
       </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H3" s="8">
         <v>39295</v>
@@ -2523,48 +2517,48 @@
         <v>2007</v>
       </c>
       <c r="J3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" t="s">
         <v>144</v>
-      </c>
-      <c r="K3" t="s">
-        <v>145</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P3" t="s">
         <v>146</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>148</v>
-      </c>
-      <c r="S3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H4" s="8">
         <v>39326</v>
@@ -2573,48 +2567,48 @@
         <v>2007</v>
       </c>
       <c r="J4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" t="s">
         <v>144</v>
-      </c>
-      <c r="K4" t="s">
-        <v>145</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" t="s">
         <v>146</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>147</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>148</v>
-      </c>
-      <c r="S4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5" s="8">
         <v>39356</v>
@@ -2623,48 +2617,48 @@
         <v>2007</v>
       </c>
       <c r="J5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" t="s">
         <v>144</v>
-      </c>
-      <c r="K5" t="s">
-        <v>145</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" t="s">
         <v>146</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>147</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>148</v>
-      </c>
-      <c r="S5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" s="8">
         <v>39630</v>
@@ -2673,48 +2667,48 @@
         <v>2008</v>
       </c>
       <c r="J6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" t="s">
         <v>144</v>
-      </c>
-      <c r="K6" t="s">
-        <v>145</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" t="s">
         <v>146</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>148</v>
-      </c>
-      <c r="S6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="8">
         <v>39661</v>
@@ -2723,48 +2717,48 @@
         <v>2008</v>
       </c>
       <c r="J7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" t="s">
-        <v>145</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" t="s">
         <v>146</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>147</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>148</v>
-      </c>
-      <c r="S7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8" s="8">
         <v>39692</v>
@@ -2773,48 +2767,48 @@
         <v>2008</v>
       </c>
       <c r="J8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" t="s">
         <v>144</v>
-      </c>
-      <c r="K8" t="s">
-        <v>145</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" t="s">
         <v>146</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>147</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>148</v>
-      </c>
-      <c r="S8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" s="8">
         <v>39295</v>
@@ -2823,48 +2817,48 @@
         <v>2007</v>
       </c>
       <c r="J9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" t="s">
         <v>144</v>
-      </c>
-      <c r="K9" t="s">
-        <v>145</v>
       </c>
       <c r="L9">
         <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P9" t="s">
         <v>146</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>147</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>148</v>
-      </c>
-      <c r="S9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H10" s="8">
         <v>39326</v>
@@ -2873,48 +2867,48 @@
         <v>2007</v>
       </c>
       <c r="J10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" t="s">
         <v>144</v>
-      </c>
-      <c r="K10" t="s">
-        <v>145</v>
       </c>
       <c r="L10">
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" t="s">
         <v>146</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>147</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>148</v>
-      </c>
-      <c r="S10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="8">
         <v>39356</v>
@@ -2923,48 +2917,48 @@
         <v>2007</v>
       </c>
       <c r="J11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s">
         <v>144</v>
-      </c>
-      <c r="K11" t="s">
-        <v>145</v>
       </c>
       <c r="L11">
         <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
+        <v>145</v>
+      </c>
+      <c r="P11" t="s">
         <v>146</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>147</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>148</v>
-      </c>
-      <c r="S11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="8">
         <v>39630</v>
@@ -2973,48 +2967,48 @@
         <v>2008</v>
       </c>
       <c r="J12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s">
         <v>144</v>
-      </c>
-      <c r="K12" t="s">
-        <v>145</v>
       </c>
       <c r="L12">
         <v>5</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" t="s">
         <v>146</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>147</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>148</v>
-      </c>
-      <c r="S12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="8">
         <v>39661</v>
@@ -3023,48 +3017,48 @@
         <v>2008</v>
       </c>
       <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" t="s">
-        <v>145</v>
       </c>
       <c r="L13">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" t="s">
         <v>146</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>147</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>148</v>
-      </c>
-      <c r="S13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="8">
         <v>39692</v>
@@ -3073,33 +3067,33 @@
         <v>2008</v>
       </c>
       <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
         <v>144</v>
-      </c>
-      <c r="K14" t="s">
-        <v>145</v>
       </c>
       <c r="L14">
         <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" t="s">
         <v>146</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>147</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>148</v>
-      </c>
-      <c r="S14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15">
         <v>46</v>
@@ -3108,48 +3102,48 @@
         <v>31.9</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="I15">
         <v>2008</v>
       </c>
       <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
         <v>154</v>
-      </c>
-      <c r="K15" t="s">
-        <v>155</v>
       </c>
       <c r="L15">
         <v>10</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="P15" t="s">
         <v>156</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>157</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16">
         <v>27</v>
@@ -3158,48 +3152,48 @@
         <v>31.9</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="I16">
         <v>2008</v>
       </c>
       <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
         <v>154</v>
-      </c>
-      <c r="K16" t="s">
-        <v>155</v>
       </c>
       <c r="L16">
         <v>10</v>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" t="s">
         <v>156</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>157</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17">
         <v>39</v>
@@ -3208,66 +3202,66 @@
         <v>31.9</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="I17">
         <v>2008</v>
       </c>
       <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
         <v>154</v>
-      </c>
-      <c r="K17" t="s">
-        <v>155</v>
       </c>
       <c r="L17">
         <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" t="s">
         <v>156</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>157</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="11"/>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="U18" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -3276,48 +3270,48 @@
         <v>7.3</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" t="s">
         <v>164</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="I19">
         <v>2012</v>
       </c>
       <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
         <v>167</v>
-      </c>
-      <c r="K19" t="s">
-        <v>168</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="P19" t="s">
         <v>169</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>170</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>171</v>
-      </c>
-      <c r="S19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -3326,48 +3320,48 @@
         <v>7.3</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" t="s">
         <v>164</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="I20">
         <v>2012</v>
       </c>
       <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
         <v>167</v>
-      </c>
-      <c r="K20" t="s">
-        <v>168</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" t="s">
         <v>169</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>170</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>171</v>
-      </c>
-      <c r="S20" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3376,78 +3370,78 @@
         <v>7.3</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" t="s">
         <v>164</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="I21">
         <v>2012</v>
       </c>
       <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
         <v>167</v>
-      </c>
-      <c r="K21" t="s">
-        <v>168</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P21" t="s">
         <v>169</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>170</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>171</v>
-      </c>
-      <c r="S21" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" t="s">
         <v>175</v>
       </c>
-      <c r="F22" t="s">
+      <c r="J22" t="s">
         <v>176</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>177</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>178</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="O22" s="13"/>
       <c r="Q22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -3462,43 +3456,43 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I23">
         <v>2014</v>
       </c>
       <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
         <v>177</v>
-      </c>
-      <c r="K23" t="s">
-        <v>178</v>
       </c>
       <c r="L23">
         <v>24</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3513,43 +3507,43 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I24">
         <v>2014</v>
       </c>
       <c r="J24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" t="s">
         <v>177</v>
-      </c>
-      <c r="K24" t="s">
-        <v>178</v>
       </c>
       <c r="L24">
         <v>24</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O24" s="13"/>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -3564,64 +3558,64 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I25">
         <v>2014</v>
       </c>
       <c r="J25" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" t="s">
         <v>177</v>
-      </c>
-      <c r="K25" t="s">
-        <v>178</v>
       </c>
       <c r="L25">
         <v>24</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O25" s="13"/>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" t="s">
         <v>184</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>185</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="M26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="O26" s="13"/>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -3636,50 +3630,50 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G27">
         <v>122</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I27">
         <v>2006</v>
       </c>
       <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
         <v>191</v>
-      </c>
-      <c r="K27" t="s">
-        <v>192</v>
       </c>
       <c r="L27">
         <v>50</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O27" s="13"/>
       <c r="P27" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="R27" s="7"/>
       <c r="T27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28">
         <v>39</v>
@@ -3694,50 +3688,50 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G28">
         <v>122</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I28">
         <v>2006</v>
       </c>
       <c r="J28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" t="s">
         <v>191</v>
-      </c>
-      <c r="K28" t="s">
-        <v>192</v>
       </c>
       <c r="L28">
         <v>50</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O28" s="13"/>
       <c r="P28" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="R28" s="7"/>
       <c r="T28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29">
         <v>12</v>
@@ -3752,50 +3746,50 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G29">
         <v>122</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I29">
         <v>2006</v>
       </c>
       <c r="J29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" t="s">
         <v>191</v>
-      </c>
-      <c r="K29" t="s">
-        <v>192</v>
       </c>
       <c r="L29">
         <v>50</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O29" s="13"/>
       <c r="P29" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="R29" s="7"/>
       <c r="T29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -3810,50 +3804,50 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G30">
         <v>122</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I30">
         <v>2006</v>
       </c>
       <c r="J30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" t="s">
         <v>191</v>
-      </c>
-      <c r="K30" t="s">
-        <v>192</v>
       </c>
       <c r="L30">
         <v>50</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O30" s="13"/>
       <c r="P30" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="R30" s="7"/>
       <c r="T30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -3868,50 +3862,50 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G31">
         <v>122</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I31">
         <v>2006</v>
       </c>
       <c r="J31" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" t="s">
         <v>191</v>
-      </c>
-      <c r="K31" t="s">
-        <v>192</v>
       </c>
       <c r="L31">
         <v>50</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O31" s="13"/>
       <c r="P31" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="R31" s="7"/>
       <c r="T31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -3926,50 +3920,50 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G32">
         <v>122</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I32">
         <v>2006</v>
       </c>
       <c r="J32" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" t="s">
         <v>191</v>
-      </c>
-      <c r="K32" t="s">
-        <v>192</v>
       </c>
       <c r="L32">
         <v>50</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O32" s="13"/>
       <c r="P32" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="R32" s="7"/>
       <c r="T32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3984,50 +3978,50 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G33">
         <v>122</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I33">
         <v>2006</v>
       </c>
       <c r="J33" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" t="s">
         <v>191</v>
-      </c>
-      <c r="K33" t="s">
-        <v>192</v>
       </c>
       <c r="L33">
         <v>50</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O33" s="13"/>
       <c r="P33" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="R33" s="7"/>
       <c r="T33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34">
         <v>26</v>
@@ -4042,50 +4036,50 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G34">
         <v>122</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I34">
         <v>2006</v>
       </c>
       <c r="J34" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" t="s">
         <v>191</v>
-      </c>
-      <c r="K34" t="s">
-        <v>192</v>
       </c>
       <c r="L34">
         <v>50</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O34" s="13"/>
       <c r="P34" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="R34" s="7"/>
       <c r="T34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U34" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -4100,50 +4094,50 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G35">
         <v>122</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I35">
         <v>2006</v>
       </c>
       <c r="J35" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" t="s">
         <v>191</v>
-      </c>
-      <c r="K35" t="s">
-        <v>192</v>
       </c>
       <c r="L35">
         <v>50</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O35" s="13"/>
       <c r="P35" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="R35" s="7"/>
       <c r="T35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36">
         <v>61</v>
@@ -4158,42 +4152,42 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G36">
         <v>122</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I36">
         <v>2008</v>
       </c>
       <c r="J36" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" t="s">
         <v>191</v>
-      </c>
-      <c r="K36" t="s">
-        <v>192</v>
       </c>
       <c r="L36">
         <v>64</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O36" s="13"/>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R36" s="7"/>
       <c r="U36" s="14"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37">
         <v>16</v>
@@ -4208,42 +4202,42 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G37">
         <v>122</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I37">
         <v>2008</v>
       </c>
       <c r="J37" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" t="s">
         <v>191</v>
-      </c>
-      <c r="K37" t="s">
-        <v>192</v>
       </c>
       <c r="L37">
         <v>64</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O37" s="13"/>
       <c r="Q37" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R37" s="7"/>
       <c r="U37" s="14"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38">
         <v>29</v>
@@ -4258,74 +4252,74 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G38">
         <v>122</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I38">
         <v>2008</v>
       </c>
       <c r="J38" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" t="s">
         <v>191</v>
-      </c>
-      <c r="K38" t="s">
-        <v>192</v>
       </c>
       <c r="L38">
         <v>64</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O38" s="13"/>
       <c r="Q38" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R38" s="7"/>
       <c r="U38" s="14"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="M39" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="M40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R40" s="7"/>
       <c r="U40" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="M41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R41" s="7"/>
       <c r="U41" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42">
         <v>29</v>
@@ -4346,42 +4340,42 @@
         <v>118.6</v>
       </c>
       <c r="H42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I42">
         <v>2012</v>
       </c>
       <c r="J42" t="s">
+        <v>202</v>
+      </c>
+      <c r="K42" t="s">
         <v>203</v>
-      </c>
-      <c r="K42" t="s">
-        <v>204</v>
       </c>
       <c r="L42">
         <v>67</v>
       </c>
       <c r="M42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P42">
         <v>4.0999999999999996</v>
       </c>
       <c r="Q42" t="s">
+        <v>205</v>
+      </c>
+      <c r="S42" t="s">
         <v>206</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>207</v>
-      </c>
-      <c r="T42" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43">
         <v>11</v>
@@ -4402,42 +4396,42 @@
         <v>118.6</v>
       </c>
       <c r="H43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I43">
         <v>2012</v>
       </c>
       <c r="J43" t="s">
+        <v>202</v>
+      </c>
+      <c r="K43" t="s">
         <v>203</v>
-      </c>
-      <c r="K43" t="s">
-        <v>204</v>
       </c>
       <c r="L43">
         <v>67</v>
       </c>
       <c r="M43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P43">
         <v>4.0999999999999996</v>
       </c>
       <c r="Q43" t="s">
+        <v>205</v>
+      </c>
+      <c r="S43" t="s">
         <v>206</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>207</v>
-      </c>
-      <c r="T43" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -4458,42 +4452,42 @@
         <v>118.6</v>
       </c>
       <c r="H44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I44">
         <v>2012</v>
       </c>
       <c r="J44" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" t="s">
         <v>203</v>
-      </c>
-      <c r="K44" t="s">
-        <v>204</v>
       </c>
       <c r="L44">
         <v>67</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P44">
         <v>4.0999999999999996</v>
       </c>
       <c r="Q44" t="s">
+        <v>205</v>
+      </c>
+      <c r="S44" t="s">
         <v>206</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>207</v>
-      </c>
-      <c r="T44" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -4508,46 +4502,46 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G45">
         <v>126.5</v>
       </c>
       <c r="H45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I45">
         <v>2013</v>
       </c>
       <c r="J45" t="s">
+        <v>210</v>
+      </c>
+      <c r="K45" t="s">
         <v>211</v>
-      </c>
-      <c r="K45" t="s">
-        <v>212</v>
       </c>
       <c r="L45">
         <v>22</v>
       </c>
       <c r="M45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N45" t="s">
+        <v>212</v>
+      </c>
+      <c r="P45" t="s">
         <v>213</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="R45" s="7"/>
       <c r="T45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -4562,46 +4556,46 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G46">
         <v>126.5</v>
       </c>
       <c r="H46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I46">
         <v>2013</v>
       </c>
       <c r="J46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K46" t="s">
         <v>211</v>
-      </c>
-      <c r="K46" t="s">
-        <v>212</v>
       </c>
       <c r="L46">
         <v>22</v>
       </c>
       <c r="M46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N46" t="s">
+        <v>212</v>
+      </c>
+      <c r="P46" t="s">
         <v>213</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="R46" s="7"/>
       <c r="T46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47">
         <v>12</v>
@@ -4616,46 +4610,46 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G47">
         <v>126.5</v>
       </c>
       <c r="H47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I47">
         <v>2013</v>
       </c>
       <c r="J47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" t="s">
         <v>211</v>
-      </c>
-      <c r="K47" t="s">
-        <v>212</v>
       </c>
       <c r="L47">
         <v>22</v>
       </c>
       <c r="M47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N47" t="s">
+        <v>212</v>
+      </c>
+      <c r="P47" t="s">
         <v>213</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="R47" s="7"/>
       <c r="T47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48">
         <v>26</v>
@@ -4670,37 +4664,37 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" t="s">
         <v>216</v>
-      </c>
-      <c r="H48" t="s">
-        <v>217</v>
       </c>
       <c r="I48">
         <v>2012</v>
       </c>
       <c r="J48" t="s">
+        <v>217</v>
+      </c>
+      <c r="K48" t="s">
         <v>218</v>
-      </c>
-      <c r="K48" t="s">
-        <v>219</v>
       </c>
       <c r="L48">
         <v>16</v>
       </c>
       <c r="M48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N48" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q48" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="Q48" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="R48" s="14"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -4715,37 +4709,37 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" t="s">
         <v>216</v>
-      </c>
-      <c r="H49" t="s">
-        <v>217</v>
       </c>
       <c r="I49">
         <v>2012</v>
       </c>
       <c r="J49" t="s">
+        <v>217</v>
+      </c>
+      <c r="K49" t="s">
         <v>218</v>
-      </c>
-      <c r="K49" t="s">
-        <v>219</v>
       </c>
       <c r="L49">
         <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N49" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q49" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="Q49" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="R49" s="14"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50">
         <v>14</v>
@@ -4760,37 +4754,37 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" t="s">
         <v>216</v>
-      </c>
-      <c r="H50" t="s">
-        <v>217</v>
       </c>
       <c r="I50">
         <v>2012</v>
       </c>
       <c r="J50" t="s">
+        <v>217</v>
+      </c>
+      <c r="K50" t="s">
         <v>218</v>
-      </c>
-      <c r="K50" t="s">
-        <v>219</v>
       </c>
       <c r="L50">
         <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N50" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q50" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="Q50" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="R50" s="14"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -4808,97 +4802,97 @@
         <v>100</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I51">
         <v>2012</v>
       </c>
       <c r="J51" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" t="s">
         <v>223</v>
-      </c>
-      <c r="K51" t="s">
-        <v>224</v>
       </c>
       <c r="L51">
         <v>10</v>
       </c>
       <c r="M51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P51">
         <v>2</v>
       </c>
       <c r="Q51" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R51" s="14"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I52">
         <v>2013</v>
       </c>
       <c r="J52" t="s">
+        <v>227</v>
+      </c>
+      <c r="K52" t="s">
         <v>228</v>
       </c>
-      <c r="K52" t="s">
+      <c r="M52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="M52" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="R52" s="7"/>
       <c r="U52" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I53">
         <v>2009</v>
       </c>
       <c r="J53" t="s">
+        <v>231</v>
+      </c>
+      <c r="K53" t="s">
         <v>232</v>
       </c>
-      <c r="K53" t="s">
+      <c r="M53" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" t="s">
         <v>233</v>
       </c>
-      <c r="M53" t="s">
-        <v>35</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="Q53" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="R53" s="7"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D54">
         <v>0.67</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F54">
         <v>38</v>
@@ -4907,54 +4901,54 @@
         <v>119</v>
       </c>
       <c r="H54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I54">
         <v>2007</v>
       </c>
       <c r="J54" t="s">
+        <v>238</v>
+      </c>
+      <c r="K54" t="s">
         <v>239</v>
-      </c>
-      <c r="K54" t="s">
-        <v>240</v>
       </c>
       <c r="L54">
         <v>28</v>
       </c>
       <c r="M54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N54" t="s">
+        <v>240</v>
+      </c>
+      <c r="P54" t="s">
         <v>241</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>242</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>243</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>244</v>
-      </c>
-      <c r="T54" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55">
         <v>7</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D55">
         <v>0.67</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F55">
         <v>38</v>
@@ -4963,54 +4957,54 @@
         <v>119</v>
       </c>
       <c r="H55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I55">
         <v>2007</v>
       </c>
       <c r="J55" t="s">
+        <v>238</v>
+      </c>
+      <c r="K55" t="s">
         <v>239</v>
-      </c>
-      <c r="K55" t="s">
-        <v>240</v>
       </c>
       <c r="L55">
         <v>28</v>
       </c>
       <c r="M55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N55" t="s">
+        <v>240</v>
+      </c>
+      <c r="P55" t="s">
         <v>241</v>
       </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>242</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>243</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>244</v>
-      </c>
-      <c r="T55" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D56">
         <v>0.67</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F56">
         <v>38</v>
@@ -5019,54 +5013,54 @@
         <v>119</v>
       </c>
       <c r="H56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I56">
         <v>2007</v>
       </c>
       <c r="J56" t="s">
+        <v>238</v>
+      </c>
+      <c r="K56" t="s">
         <v>239</v>
-      </c>
-      <c r="K56" t="s">
-        <v>240</v>
       </c>
       <c r="L56">
         <v>28</v>
       </c>
       <c r="M56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N56" t="s">
+        <v>240</v>
+      </c>
+      <c r="P56" t="s">
         <v>241</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>242</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>243</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>244</v>
-      </c>
-      <c r="T56" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57">
         <v>0.5</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F57">
         <v>38</v>
@@ -5075,54 +5069,54 @@
         <v>119</v>
       </c>
       <c r="H57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I57">
         <v>2007</v>
       </c>
       <c r="J57" t="s">
+        <v>238</v>
+      </c>
+      <c r="K57" t="s">
         <v>239</v>
-      </c>
-      <c r="K57" t="s">
-        <v>240</v>
       </c>
       <c r="L57">
         <v>28</v>
       </c>
       <c r="M57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N57" t="s">
+        <v>240</v>
+      </c>
+      <c r="P57" t="s">
         <v>241</v>
       </c>
-      <c r="P57" t="s">
-        <v>242</v>
-      </c>
       <c r="R57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S57" t="s">
+        <v>243</v>
+      </c>
+      <c r="T57" t="s">
         <v>244</v>
-      </c>
-      <c r="T57" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D58">
         <v>0.56999999999999995</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F58">
         <v>38</v>
@@ -5131,39 +5125,39 @@
         <v>119</v>
       </c>
       <c r="H58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I58">
         <v>2008</v>
       </c>
       <c r="J58" t="s">
+        <v>238</v>
+      </c>
+      <c r="K58" t="s">
         <v>239</v>
-      </c>
-      <c r="K58" t="s">
-        <v>240</v>
       </c>
       <c r="L58">
         <v>28</v>
       </c>
       <c r="M58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N58" t="s">
+        <v>240</v>
+      </c>
+      <c r="P58" t="s">
         <v>241</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>242</v>
       </c>
-      <c r="R58" t="s">
-        <v>243</v>
-      </c>
       <c r="T58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -5184,39 +5178,39 @@
         <v>119</v>
       </c>
       <c r="H59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I59">
         <v>2008</v>
       </c>
       <c r="J59" t="s">
+        <v>238</v>
+      </c>
+      <c r="K59" t="s">
         <v>239</v>
-      </c>
-      <c r="K59" t="s">
-        <v>240</v>
       </c>
       <c r="L59">
         <v>28</v>
       </c>
       <c r="M59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N59" t="s">
+        <v>240</v>
+      </c>
+      <c r="P59" t="s">
         <v>241</v>
       </c>
-      <c r="P59" t="s">
-        <v>242</v>
-      </c>
       <c r="R59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -5237,39 +5231,39 @@
         <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I60">
         <v>2008</v>
       </c>
       <c r="J60" t="s">
+        <v>238</v>
+      </c>
+      <c r="K60" t="s">
         <v>239</v>
-      </c>
-      <c r="K60" t="s">
-        <v>240</v>
       </c>
       <c r="L60">
         <v>28</v>
       </c>
       <c r="M60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N60" t="s">
+        <v>240</v>
+      </c>
+      <c r="P60" t="s">
         <v>241</v>
       </c>
-      <c r="P60" t="s">
-        <v>242</v>
-      </c>
       <c r="R60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -5284,42 +5278,42 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G61">
         <v>119</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I61">
         <v>2008</v>
       </c>
       <c r="J61" t="s">
+        <v>253</v>
+      </c>
+      <c r="K61" t="s">
         <v>254</v>
-      </c>
-      <c r="K61" t="s">
-        <v>255</v>
       </c>
       <c r="L61">
         <v>23</v>
       </c>
       <c r="M61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N61" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q61" t="s">
         <v>256</v>
       </c>
-      <c r="Q61" t="s">
-        <v>257</v>
-      </c>
       <c r="R61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5334,42 +5328,42 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G62">
         <v>119</v>
       </c>
       <c r="H62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I62">
         <v>2008</v>
       </c>
       <c r="J62" t="s">
+        <v>253</v>
+      </c>
+      <c r="K62" t="s">
         <v>254</v>
-      </c>
-      <c r="K62" t="s">
-        <v>255</v>
       </c>
       <c r="L62">
         <v>23</v>
       </c>
       <c r="M62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N62" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q62" t="s">
         <v>256</v>
       </c>
-      <c r="Q62" t="s">
-        <v>257</v>
-      </c>
       <c r="R62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -5384,42 +5378,42 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G63">
         <v>119</v>
       </c>
       <c r="H63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I63">
         <v>2008</v>
       </c>
       <c r="J63" t="s">
+        <v>253</v>
+      </c>
+      <c r="K63" t="s">
         <v>254</v>
-      </c>
-      <c r="K63" t="s">
-        <v>255</v>
       </c>
       <c r="L63">
         <v>23</v>
       </c>
       <c r="M63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N63" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q63" t="s">
         <v>256</v>
       </c>
-      <c r="Q63" t="s">
-        <v>257</v>
-      </c>
       <c r="R63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -5440,39 +5434,39 @@
         <v>119</v>
       </c>
       <c r="H64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I64">
         <v>2009</v>
       </c>
       <c r="J64" t="s">
+        <v>258</v>
+      </c>
+      <c r="K64" t="s">
         <v>259</v>
-      </c>
-      <c r="K64" t="s">
-        <v>260</v>
       </c>
       <c r="L64">
         <v>38</v>
       </c>
       <c r="M64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N64" t="s">
+        <v>260</v>
+      </c>
+      <c r="P64" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="P64" s="16" t="s">
+      <c r="Q64" t="s">
         <v>262</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="U64" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="U64" s="14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5493,64 +5487,64 @@
         <v>119</v>
       </c>
       <c r="H65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I65">
         <v>2009</v>
       </c>
       <c r="J65" t="s">
+        <v>258</v>
+      </c>
+      <c r="K65" t="s">
         <v>259</v>
-      </c>
-      <c r="K65" t="s">
-        <v>260</v>
       </c>
       <c r="L65">
         <v>38</v>
       </c>
       <c r="M65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N65" t="s">
+        <v>260</v>
+      </c>
+      <c r="P65" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="P65" s="16" t="s">
+      <c r="Q65" t="s">
         <v>262</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="U65" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="U65" s="14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I66">
         <v>2009</v>
       </c>
       <c r="J66" t="s">
+        <v>265</v>
+      </c>
+      <c r="K66" t="s">
         <v>266</v>
       </c>
-      <c r="K66" t="s">
+      <c r="M66" t="s">
+        <v>37</v>
+      </c>
+      <c r="N66" t="s">
         <v>267</v>
       </c>
-      <c r="M66" t="s">
-        <v>38</v>
-      </c>
-      <c r="N66" t="s">
-        <v>268</v>
-      </c>
       <c r="Q66" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R66" s="7"/>
       <c r="U66" s="14"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -5565,45 +5559,45 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G67">
         <v>131</v>
       </c>
       <c r="H67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I67">
         <v>2010</v>
       </c>
       <c r="J67" t="s">
+        <v>268</v>
+      </c>
+      <c r="K67" t="s">
         <v>269</v>
-      </c>
-      <c r="K67" t="s">
-        <v>270</v>
       </c>
       <c r="L67">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N67" t="s">
+        <v>270</v>
+      </c>
+      <c r="P67" t="s">
         <v>271</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>272</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>273</v>
-      </c>
-      <c r="R67" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -5618,45 +5612,45 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G68">
         <v>131</v>
       </c>
       <c r="H68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I68">
         <v>2010</v>
       </c>
       <c r="J68" t="s">
+        <v>268</v>
+      </c>
+      <c r="K68" t="s">
         <v>269</v>
-      </c>
-      <c r="K68" t="s">
-        <v>270</v>
       </c>
       <c r="L68">
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N68" t="s">
+        <v>270</v>
+      </c>
+      <c r="P68" t="s">
         <v>271</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>272</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>273</v>
-      </c>
-      <c r="R68" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -5671,45 +5665,45 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G69">
         <v>131</v>
       </c>
       <c r="H69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I69">
         <v>2010</v>
       </c>
       <c r="J69" t="s">
+        <v>268</v>
+      </c>
+      <c r="K69" t="s">
         <v>269</v>
-      </c>
-      <c r="K69" t="s">
-        <v>270</v>
       </c>
       <c r="L69">
         <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N69" t="s">
+        <v>270</v>
+      </c>
+      <c r="P69" t="s">
         <v>271</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>272</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>273</v>
-      </c>
-      <c r="R69" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -5724,45 +5718,45 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G70">
         <v>131</v>
       </c>
       <c r="H70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I70">
         <v>2010</v>
       </c>
       <c r="J70" t="s">
+        <v>268</v>
+      </c>
+      <c r="K70" t="s">
         <v>269</v>
-      </c>
-      <c r="K70" t="s">
-        <v>270</v>
       </c>
       <c r="L70">
         <v>17</v>
       </c>
       <c r="M70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N70" t="s">
+        <v>270</v>
+      </c>
+      <c r="P70" t="s">
         <v>271</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>272</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>273</v>
-      </c>
-      <c r="R70" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -5777,45 +5771,45 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G71">
         <v>131</v>
       </c>
       <c r="H71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I71">
         <v>2010</v>
       </c>
       <c r="J71" t="s">
+        <v>268</v>
+      </c>
+      <c r="K71" t="s">
         <v>269</v>
-      </c>
-      <c r="K71" t="s">
-        <v>270</v>
       </c>
       <c r="L71">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N71" t="s">
+        <v>270</v>
+      </c>
+      <c r="P71" t="s">
         <v>271</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>272</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>273</v>
-      </c>
-      <c r="R71" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72">
         <v>7</v>
@@ -5830,92 +5824,92 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G72">
         <v>131</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I72">
         <v>2010</v>
       </c>
       <c r="J72" t="s">
+        <v>268</v>
+      </c>
+      <c r="K72" t="s">
         <v>269</v>
-      </c>
-      <c r="K72" t="s">
-        <v>270</v>
       </c>
       <c r="L72">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N72" t="s">
+        <v>270</v>
+      </c>
+      <c r="P72" t="s">
         <v>271</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>272</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>273</v>
-      </c>
-      <c r="R72" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I73">
         <v>2011</v>
       </c>
       <c r="J73" t="s">
+        <v>275</v>
+      </c>
+      <c r="K73" t="s">
         <v>276</v>
       </c>
-      <c r="K73" t="s">
+      <c r="M73" t="s">
+        <v>40</v>
+      </c>
+      <c r="N73" t="s">
         <v>277</v>
       </c>
-      <c r="M73" t="s">
-        <v>41</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="Q73" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I74">
         <v>2012</v>
       </c>
       <c r="J74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K74" t="s">
+        <v>279</v>
+      </c>
+      <c r="M74" t="s">
+        <v>43</v>
+      </c>
+      <c r="N74" t="s">
         <v>280</v>
       </c>
-      <c r="M74" t="s">
-        <v>44</v>
-      </c>
-      <c r="N74" t="s">
+      <c r="Q74" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="R74" s="7"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75">
         <v>177</v>
@@ -5936,42 +5930,42 @@
         <v>118</v>
       </c>
       <c r="H75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I75">
         <v>2010</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L75">
         <v>25</v>
       </c>
       <c r="M75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N75" t="s">
+        <v>284</v>
+      </c>
+      <c r="P75" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q75" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P75" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q75" s="7" t="s">
+      <c r="R75" t="s">
+        <v>273</v>
+      </c>
+      <c r="S75" t="s">
+        <v>180</v>
+      </c>
+      <c r="T75" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="R75" t="s">
-        <v>274</v>
-      </c>
-      <c r="S75" t="s">
-        <v>181</v>
-      </c>
-      <c r="T75" s="18" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76">
         <v>78</v>
@@ -5992,42 +5986,42 @@
         <v>118</v>
       </c>
       <c r="H76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I76">
         <v>2010</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L76">
         <v>25</v>
       </c>
       <c r="M76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N76" t="s">
+        <v>284</v>
+      </c>
+      <c r="P76" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q76" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P76" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q76" s="7" t="s">
+      <c r="R76" t="s">
+        <v>273</v>
+      </c>
+      <c r="S76" t="s">
+        <v>180</v>
+      </c>
+      <c r="T76" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="R76" t="s">
-        <v>274</v>
-      </c>
-      <c r="S76" t="s">
-        <v>181</v>
-      </c>
-      <c r="T76" s="18" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B77">
         <v>21</v>
@@ -6048,53 +6042,53 @@
         <v>118</v>
       </c>
       <c r="H77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I77">
         <v>2010</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L77">
         <v>25</v>
       </c>
       <c r="M77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N77" t="s">
+        <v>284</v>
+      </c>
+      <c r="P77" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q77" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P77" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q77" s="7" t="s">
+      <c r="R77" t="s">
+        <v>273</v>
+      </c>
+      <c r="S77" t="s">
+        <v>180</v>
+      </c>
+      <c r="T77" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="R77" t="s">
-        <v>274</v>
-      </c>
-      <c r="S77" t="s">
-        <v>181</v>
-      </c>
-      <c r="T77" s="18" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="M78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T78" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B79">
         <v>231</v>
@@ -6109,51 +6103,51 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G79">
         <v>128</v>
       </c>
       <c r="H79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I79">
         <v>2011</v>
       </c>
       <c r="J79" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K79" t="s">
         <v>291</v>
-      </c>
-      <c r="K79" t="s">
-        <v>292</v>
       </c>
       <c r="L79">
         <v>28</v>
       </c>
       <c r="M79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N79" t="s">
+        <v>292</v>
+      </c>
+      <c r="P79" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q79" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P79" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q79" s="7" t="s">
+      <c r="R79" t="s">
         <v>294</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
+        <v>180</v>
+      </c>
+      <c r="T79" t="s">
         <v>295</v>
-      </c>
-      <c r="S79" t="s">
-        <v>181</v>
-      </c>
-      <c r="T79" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B80">
         <v>216</v>
@@ -6168,51 +6162,51 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G80">
         <v>128</v>
       </c>
       <c r="H80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I80">
         <v>2011</v>
       </c>
       <c r="J80" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K80" t="s">
         <v>291</v>
-      </c>
-      <c r="K80" t="s">
-        <v>292</v>
       </c>
       <c r="L80">
         <v>28</v>
       </c>
       <c r="M80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N80" t="s">
+        <v>292</v>
+      </c>
+      <c r="P80" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q80" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P80" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q80" s="7" t="s">
+      <c r="R80" t="s">
         <v>294</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
+        <v>180</v>
+      </c>
+      <c r="T80" t="s">
         <v>295</v>
-      </c>
-      <c r="S80" t="s">
-        <v>181</v>
-      </c>
-      <c r="T80" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81">
         <v>96</v>
@@ -6227,51 +6221,51 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G81">
         <v>128</v>
       </c>
       <c r="H81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I81">
         <v>2011</v>
       </c>
       <c r="J81" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K81" t="s">
         <v>291</v>
-      </c>
-      <c r="K81" t="s">
-        <v>292</v>
       </c>
       <c r="L81">
         <v>28</v>
       </c>
       <c r="M81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N81" t="s">
+        <v>292</v>
+      </c>
+      <c r="P81" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q81" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P81" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q81" s="7" t="s">
+      <c r="R81" t="s">
         <v>294</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T81" t="s">
         <v>295</v>
-      </c>
-      <c r="S81" t="s">
-        <v>181</v>
-      </c>
-      <c r="T81" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B82">
         <v>35</v>
@@ -6292,33 +6286,33 @@
         <v>118</v>
       </c>
       <c r="H82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I82">
         <v>2011</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L82">
         <v>24</v>
       </c>
       <c r="M82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B83">
         <v>48</v>
@@ -6339,33 +6333,33 @@
         <v>118</v>
       </c>
       <c r="H83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I83">
         <v>2011</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L83">
         <v>24</v>
       </c>
       <c r="M83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N83" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B84">
         <v>12</v>
@@ -6386,33 +6380,33 @@
         <v>118</v>
       </c>
       <c r="H84" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I84">
         <v>2011</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L84">
         <v>24</v>
       </c>
       <c r="M84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N84" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B85">
         <v>16</v>
@@ -6427,48 +6421,48 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G85">
         <v>128</v>
       </c>
       <c r="H85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I85">
         <v>2012</v>
       </c>
       <c r="J85" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K85" t="s">
         <v>291</v>
-      </c>
-      <c r="K85" t="s">
-        <v>292</v>
       </c>
       <c r="L85">
         <v>28</v>
       </c>
       <c r="M85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -6483,48 +6477,48 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G86">
         <v>128</v>
       </c>
       <c r="H86" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I86">
         <v>2012</v>
       </c>
       <c r="J86" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K86" t="s">
         <v>291</v>
-      </c>
-      <c r="K86" t="s">
-        <v>292</v>
       </c>
       <c r="L86">
         <v>28</v>
       </c>
       <c r="M86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P86" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R86" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T86" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -6539,43 +6533,43 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G87">
         <v>128</v>
       </c>
       <c r="H87" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I87">
         <v>2012</v>
       </c>
       <c r="J87" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K87" t="s">
         <v>291</v>
-      </c>
-      <c r="K87" t="s">
-        <v>292</v>
       </c>
       <c r="L87">
         <v>28</v>
       </c>
       <c r="M87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P87" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -6607,258 +6601,258 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
